--- a/Test_results.xlsx
+++ b/Test_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MP\Desktop\1. Projekt\OkCupid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\OneDrive\iTU\First Year Project\OkCupid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CCD9BF-5526-4DB6-BF74-5B894D2A7201}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ECA258-59A3-474F-988F-C0515D146E6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13260" yWindow="900" windowWidth="17280" windowHeight="8964" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
+    <workbookView xWindow="435" yWindow="495" windowWidth="9570" windowHeight="10440" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>Okcupid.py</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>0.68</t>
+  </si>
+  <si>
+    <t>Sex</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -244,6 +247,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -262,7 +266,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -558,22 +562,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F4F48E-6CBD-423D-AA91-5FF20D8C2A31}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -590,7 +594,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -607,7 +611,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -624,7 +628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -641,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -658,7 +662,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -675,7 +679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -692,7 +696,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -709,7 +713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
@@ -726,7 +730,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -743,7 +747,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
@@ -760,7 +764,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -777,7 +781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>9</v>
       </c>
@@ -794,7 +798,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -811,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -828,7 +832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -845,7 +849,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
@@ -860,6 +864,74 @@
       </c>
       <c r="E17" s="6" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Test_results.xlsx
+++ b/Test_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\OneDrive\iTU\First Year Project\OkCupid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MP\Desktop\1. Projekt\OkCupid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ECA258-59A3-474F-988F-C0515D146E6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F79FF-25A9-47EC-8D8D-A2A0D6D12A29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="495" windowWidth="9570" windowHeight="10440" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
+    <workbookView xWindow="-8568" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="94">
   <si>
     <t>Okcupid.py</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Percentages</t>
-  </si>
-  <si>
     <t>Essay</t>
   </si>
   <si>
@@ -106,6 +103,216 @@
   </si>
   <si>
     <t>Sex</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1-score</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Socially</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>Not at all</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>Often</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Bisexual</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>0.98</t>
+  </si>
+  <si>
+    <t>0.91</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.99</t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>When Drinking</t>
+  </si>
+  <si>
+    <t>Sometimes</t>
+  </si>
+  <si>
+    <t>Trying to quit</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>Seing someone</t>
+  </si>
+  <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>0.002</t>
   </si>
 </sst>
 </file>
@@ -239,15 +446,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -266,7 +474,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -562,376 +770,1714 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F4F48E-6CBD-423D-AA91-5FF20D8C2A31}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="6"/>
+    <col min="1" max="1" width="20.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="F19" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="H44" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="E51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="G56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="E65" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="E66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.59</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>19</v>
+      <c r="E68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Test_results.xlsx
+++ b/Test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MP\Desktop\1. Projekt\OkCupid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F79FF-25A9-47EC-8D8D-A2A0D6D12A29}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938EF1F-AAC3-478C-B97B-91A6E19BE7BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8568" yWindow="876" windowWidth="17280" windowHeight="8964" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
+    <workbookView xWindow="-8496" yWindow="1404" windowWidth="17280" windowHeight="8964" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="138">
   <si>
     <t>Okcupid.py</t>
   </si>
@@ -313,13 +313,145 @@
   </si>
   <si>
     <t>0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongest indentifier </t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>killer     other : white = 5.7 : 1.0</t>
+  </si>
+  <si>
+    <t>apocalyps    whiter : other = 4.3 : 1.0</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>music food      white :  other = 5.6 : 1.0</t>
+  </si>
+  <si>
+    <t>like music    other : white = 6.8 : 1.0</t>
+  </si>
+  <si>
+    <t>always look forward    white : other = 6.3 : 1.0</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>Visit new place    other : white = 5.6 : 1.0</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>foster    average : other = 4.9 : 1.0</t>
+  </si>
+  <si>
+    <t>smash    other : average = 4.4 : 1.0</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>little time    average : other = 6.2 : 1.0</t>
+  </si>
+  <si>
+    <t>heavy metal    other : average = 4.4 : 1.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 </t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>san fransisco year    other : average = 6.5 : 1.0</t>
+  </si>
+  <si>
+    <t>Visit new place    average : other = 4.3 : 1.0</t>
+  </si>
+  <si>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>shakespear    social : other = 5.0 : 1.0</t>
+  </si>
+  <si>
+    <t>bacon    other : social = 8.3 : 1.0</t>
+  </si>
+  <si>
+    <t>enjoy thing    socially : other = 6.4 : 1.0</t>
+  </si>
+  <si>
+    <t>co worker    other : social = 6.3 : 1.0</t>
+  </si>
+  <si>
+    <t>enjoy simple thing    social : other = 4.4 : 1.0</t>
+  </si>
+  <si>
+    <t>love hate relationship    other : social = 3.7 : 1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +463,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,10 +590,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -770,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F4F48E-6CBD-423D-AA91-5FF20D8C2A31}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,11 +926,11 @@
     <col min="4" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="15.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="8.88671875" style="5"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="46" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -807,14 +949,17 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -831,7 +976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,7 +993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -865,7 +1010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
@@ -882,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -899,7 +1044,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -916,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -933,7 +1078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -950,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -967,7 +1112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -984,7 +1129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1018,7 +1163,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1035,7 +1180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
@@ -1052,7 +1197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1099,7 +1244,7 @@
       <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -1116,7 +1261,7 @@
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -1133,7 +1278,7 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <v>0.57999999999999996</v>
       </c>
     </row>
@@ -1150,7 +1295,7 @@
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <v>0.59</v>
       </c>
     </row>
@@ -1176,7 +1321,7 @@
       <c r="G22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1202,7 +1347,7 @@
       <c r="G23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1228,7 +1373,7 @@
       <c r="G24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1254,7 +1399,7 @@
       <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1280,7 +1425,7 @@
       <c r="G26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1306,7 +1451,7 @@
       <c r="G27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1332,7 +1477,7 @@
       <c r="G28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1358,7 +1503,7 @@
       <c r="G29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1384,7 +1529,7 @@
       <c r="G30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1410,7 +1555,7 @@
       <c r="G31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1436,7 +1581,7 @@
       <c r="G32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1462,7 +1607,7 @@
       <c r="G33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1488,7 +1633,7 @@
       <c r="G34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="1" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1514,7 +1659,7 @@
       <c r="G35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1540,7 +1685,7 @@
       <c r="G36" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1566,7 +1711,7 @@
       <c r="G37" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="1" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1592,7 +1737,7 @@
       <c r="G38" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1618,7 +1763,7 @@
       <c r="G39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1644,7 +1789,7 @@
       <c r="G40" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1670,7 +1815,7 @@
       <c r="G41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1696,7 +1841,7 @@
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1722,7 +1867,7 @@
       <c r="G43" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1748,7 +1893,7 @@
       <c r="G44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="1" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1774,7 +1919,7 @@
       <c r="G45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1800,7 +1945,7 @@
       <c r="G46" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1826,7 +1971,7 @@
       <c r="G47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1852,7 +1997,7 @@
       <c r="G48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1878,7 +2023,7 @@
       <c r="G49" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1904,7 +2049,7 @@
       <c r="G50" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1930,7 +2075,7 @@
       <c r="G51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="1" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1956,7 +2101,7 @@
       <c r="G52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1982,7 +2127,7 @@
       <c r="G53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2008,7 +2153,7 @@
       <c r="G54" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2034,7 +2179,7 @@
       <c r="G55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2060,7 +2205,7 @@
       <c r="G56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2086,7 +2231,7 @@
       <c r="G57" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2112,7 +2257,7 @@
       <c r="G58" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2138,7 +2283,7 @@
       <c r="G59" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2164,7 +2309,7 @@
       <c r="G60" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2190,7 +2335,7 @@
       <c r="G61" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="1" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2216,7 +2361,7 @@
       <c r="G62" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2242,7 +2387,7 @@
       <c r="G63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="1" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2268,11 +2413,11 @@
       <c r="G64" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>14</v>
       </c>
@@ -2294,11 +2439,11 @@
       <c r="G65" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>14</v>
       </c>
@@ -2320,11 +2465,11 @@
       <c r="G66" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>14</v>
       </c>
@@ -2346,11 +2491,11 @@
       <c r="G67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>14</v>
       </c>
@@ -2372,11 +2517,11 @@
       <c r="G68" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>14</v>
       </c>
@@ -2398,11 +2543,11 @@
       <c r="G69" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>14</v>
       </c>
@@ -2424,11 +2569,11 @@
       <c r="G70" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>14</v>
       </c>
@@ -2450,11 +2595,11 @@
       <c r="G71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>14</v>
       </c>
@@ -2476,11 +2621,534 @@
       <c r="G72" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="1" t="s">
         <v>40</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>

--- a/Test_results.xlsx
+++ b/Test_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MP\Desktop\1. Projekt\OkCupid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5938EF1F-AAC3-478C-B97B-91A6E19BE7BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0218789F-8273-4B65-9DA2-75FB7997EA96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8496" yWindow="1404" windowWidth="17280" windowHeight="8964" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="139">
   <si>
     <t>Okcupid.py</t>
   </si>
@@ -445,13 +445,16 @@
   </si>
   <si>
     <t>love hate relationship    other : social = 3.7 : 1.0</t>
+  </si>
+  <si>
+    <t>Rerun!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +476,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,7 +493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -580,11 +591,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -597,6 +645,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F4F48E-6CBD-423D-AA91-5FF20D8C2A31}">
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="64" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3147,7 +3204,23 @@
         <v>137</v>
       </c>
     </row>
+    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.4">
+      <c r="A93" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A93:I93"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Test_results.xlsx
+++ b/Test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OkCupid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5079028-18D7-4B33-AF58-29A499B98083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4019CF8-32D0-4BFF-B360-17ED7C8FD6E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEDE9B50-EA2C-41DA-A9FF-A2715E97E0A1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="158">
   <si>
     <t>Okcupid.py</t>
   </si>
@@ -478,6 +478,33 @@
   </si>
   <si>
     <t>essay4 bigram sex</t>
+  </si>
+  <si>
+    <t>essay0 essay0 words</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>unigram</t>
+  </si>
+  <si>
+    <t>essay0 essay0 bigrams</t>
+  </si>
+  <si>
+    <t>bigram</t>
+  </si>
+  <si>
+    <t>f F1-Score: 0.5337704918032787</t>
+  </si>
+  <si>
+    <t>m F1-Score: 0.6310326933056565</t>
+  </si>
+  <si>
+    <t>trigram</t>
+  </si>
+  <si>
+    <t>essay 4</t>
   </si>
 </sst>
 </file>
@@ -796,14 +823,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>61451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>385206</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>181310</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>181311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1136,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F4F48E-6CBD-423D-AA91-5FF20D8C2A31}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I83" sqref="I83"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3449,40 +3476,95 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="B100" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F100" s="1">
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E101" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" s="1">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E103" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C105" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="1">
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="1">
         <v>66.8</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="1">
+      <c r="D106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="1">
         <v>64.62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107" s="1">
+        <v>57.45</v>
       </c>
     </row>
   </sheetData>
